--- a/宣科办公APP接口文档.xlsx
+++ b/宣科办公APP接口文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xkcampus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F425BF78-A8AC-4B35-A809-2431381EE22A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B16F6A4-B647-4F09-AFE0-315F2A4D830B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3670" yWindow="1880" windowWidth="16800" windowHeight="9760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" firstSheet="39" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口总览" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9862" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9862" uniqueCount="1936">
   <si>
     <t>跟域</t>
   </si>
@@ -10788,6 +10788,14 @@
   </si>
   <si>
     <t>app_myAuditUseInfoList</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_applyUserPersonInfo.do</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_applyUserPersonInfo</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -11818,8 +11826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15156,8 +15164,8 @@
       <c r="A217" s="119" t="s">
         <v>1697</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>1698</v>
+      <c r="B217" s="121" t="s">
+        <v>1934</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
@@ -51626,8 +51634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54344A8-360D-4967-AFA1-572241C2FADF}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -51639,7 +51647,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="122" t="s">
-        <v>1721</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
